--- a/钛虎多电机socket通信协议.xlsx
+++ b/钛虎多电机socket通信协议.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VM共享文件夹\multi_motor_socket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git仓库\multiMotorTCPAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E169501-D226-4D03-A2AC-E8DB6243AB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB812B88-4860-423B-98A9-42EB2F1954AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1356" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="1392" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>帧头</t>
   </si>
@@ -199,6 +199,13 @@
   </si>
   <si>
     <t>机械臂控制端调用函数：int socket_server(serverIP,port);接收发送端传来的数据控制机械臂运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：2.2转换后的数为0x00,0x16
+   2.2*10-&gt;22-&gt;0x16,因为是两字节一个数，所以需要补0，转换后的数据应该是：0x00 0x16
+-0.68转换后的数为0xff，0xfa
+   -0.68*10 -&gt; -6.8 -&gt;取整为-6,转换后的数据应该是：0xff 0xfa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,18 +244,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFDCDCAA"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -314,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +322,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -336,29 +343,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,7 +619,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -706,37 +695,37 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,7 +737,7 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -787,7 +776,7 @@
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -804,23 +793,23 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -856,43 +845,93 @@
       <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
       <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A9:O11"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="L6:O6"/>
@@ -901,8 +940,6 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/钛虎多电机socket通信协议.xlsx
+++ b/钛虎多电机socket通信协议.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git仓库\multiMotorTCPAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VM共享文件夹\multi_motor_socket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB812B88-4860-423B-98A9-42EB2F1954AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9351F815-0B11-4021-9204-9D1408DF26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="1392" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1392" yWindow="2724" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>帧头</t>
   </si>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帧尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,43 +165,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂控制端调用函数：int socket_server(serverIP,port);接收发送端传来的数据控制机械臂运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电机个数：例如4个电机为0x04
-例如一组数据：float arr[6] = {2.2 ,-0.6 ,2.2 ,1.4}按照上面的规则转换后得到以下数据，然后通过程序使用socket通信发送给机械臂即可；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械臂控制端调用函数：int socket_server(serverIP,port);接收发送端传来的数据控制机械臂运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：2.2转换后的数为0x00,0x16
-   2.2*10-&gt;22-&gt;0x16,因为是两字节一个数，所以需要补0，转换后的数据应该是：0x00 0x16
--0.68转换后的数为0xff，0xfa
-   -0.68*10 -&gt; -6.8 -&gt;取整为-6,转换后的数据应该是：0xff 0xfa</t>
+例如一组数据：float arr[6] = {2.2 ,-0.68 ,2.22 ,1.48}按照上面的规则转换后得到以下数据，然后通过程序使用socket通信发送给机械臂即可；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：将2.2和-0.68转换
+先将2.2和-0.68都乘以1000，得到2200，-680
+2200转换后的数为0x08,0x98
+-0.68转换后的数为0xfd，0x58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,6 +329,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -333,21 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,7 +623,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -631,61 +635,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -693,55 +697,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="11"/>
       <c r="R2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -777,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>1</v>
@@ -786,40 +790,40 @@
         <v>2</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -831,98 +835,98 @@
         <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
